--- a/项目说明/项目命题-海口new java 1班选题.xlsx
+++ b/项目说明/项目命题-海口new java 1班选题.xlsx
@@ -1433,7 +1433,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1466,9 +1466,7 @@
       <c r="C2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="12">
-        <v>0.05</v>
-      </c>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" ht="16.5">
       <c r="A3" s="9" t="s">
@@ -1480,9 +1478,7 @@
       <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="12">
-        <v>0.3</v>
-      </c>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="16.5">
       <c r="A4" s="9" t="s">

--- a/项目说明/项目命题-海口new java 1班选题.xlsx
+++ b/项目说明/项目命题-海口new java 1班选题.xlsx
@@ -325,7 +325,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7月26日刚插班进来，请求延迟提交项目</t>
+    <t>7月26日刚插班进来，延迟提交项目</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1433,7 +1433,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
